--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="579">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1746,6 +1746,18 @@
   </si>
   <si>
     <t>5000</t>
+  </si>
+  <si>
+    <t>Yorumlar</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -2194,8 +2206,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" t="s">
+        <v>575</v>
       </c>
       <c r="E1" t="s">
         <v>573</v>
@@ -2211,8 +2223,8 @@
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
+      <c r="D2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2225,8 +2237,8 @@
       <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
+      <c r="D3" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -2239,8 +2251,8 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
+      <c r="D4" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
